--- a/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9175656094347061</v>
+        <v>0.9175656094347062</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8931890728079585</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8859860891390984</v>
+        <v>0.8825205158022155</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8555117444760562</v>
+        <v>0.8527063638311315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8826208115147255</v>
+        <v>0.8829493764644187</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.946161923439013</v>
+        <v>0.9455666064328589</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9200286143192196</v>
+        <v>0.9170914438157808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9259269470498527</v>
+        <v>0.9260111120551445</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8528901227581649</v>
+        <v>0.852890122758165</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8718456539747865</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8026218869289202</v>
+        <v>0.8087381705322056</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8419871163698007</v>
+        <v>0.844572853774752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.83722999754622</v>
+        <v>0.8355650533626195</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8874877494635842</v>
+        <v>0.8913777394646416</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8944768926677433</v>
+        <v>0.8957804505083917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8838453594850654</v>
+        <v>0.8857858871170118</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9762532347189093</v>
+        <v>0.9760245914932386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.964619909112556</v>
+        <v>0.9646784255859633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9754903501917345</v>
+        <v>0.9765563895656089</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9978174845618694</v>
+        <v>0.9978161920612583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9919179162119727</v>
+        <v>0.9936970669110119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9930583459584886</v>
+        <v>0.9944147615328147</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.9753605406437483</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9767389265323027</v>
+        <v>0.976738926532303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.976092047117091</v>
+        <v>0.9760920471170906</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9519152596124669</v>
+        <v>0.9482279998976183</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9401740137629783</v>
+        <v>0.9423931274910982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9573288611093894</v>
+        <v>0.9554836118952336</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9909524314470433</v>
+        <v>0.9886327788626524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9904361566906676</v>
+        <v>0.9895523111412043</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9869077476981555</v>
+        <v>0.9864757614514554</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9359170843799782</v>
+        <v>0.9359170843799786</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9665144614897673</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8982898795608067</v>
+        <v>0.8949582789344128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9467156570408547</v>
+        <v>0.9479517782339073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9284055286022731</v>
+        <v>0.9328318689653333</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9616326218071384</v>
+        <v>0.9622910897613099</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9803991079691342</v>
+        <v>0.978877859508211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9660053369085575</v>
+        <v>0.9687045420138214</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.9888517812215557</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9766383448528243</v>
+        <v>0.976638344852824</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.9828245502693291</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9729786403782327</v>
+        <v>0.9733774709610691</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.95106700317753</v>
+        <v>0.9513009987216501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9695875683410671</v>
+        <v>0.9700883174355585</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9970019488061264</v>
+        <v>0.996773848404259</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9901871274403465</v>
+        <v>0.9890261784421269</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9904216282704029</v>
+        <v>0.9908827790052968</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.9638661478590561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9632989339431058</v>
+        <v>0.963298933943106</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9429436551371433</v>
+        <v>0.9406066113351156</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9459554451806339</v>
+        <v>0.9469319856314545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.950351757329604</v>
+        <v>0.949720464303156</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9772451236583334</v>
+        <v>0.9775542450478488</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9752372137606882</v>
+        <v>0.9774621558534823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9730258956907601</v>
+        <v>0.9729716795599463</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9260099560917975</v>
+        <v>0.9260099560917976</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9487035720897102</v>
+        <v>0.9487035720897103</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.9375764845419309</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9030656171969803</v>
+        <v>0.9030164655343476</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9336702608744446</v>
+        <v>0.9310947675944081</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9217797276632506</v>
+        <v>0.9247916497260747</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9426884983722469</v>
+        <v>0.9443462248510718</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9624061294096955</v>
+        <v>0.9614733163433851</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.947761931638064</v>
+        <v>0.9486707389826454</v>
       </c>
     </row>
     <row r="28">
@@ -1007,10 +1007,10 @@
         <v>0.9383096611965812</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>282492</v>
+        <v>281387</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>270394</v>
+        <v>269507</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>560381</v>
+        <v>560590</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>301679</v>
+        <v>301489</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>290785</v>
+        <v>289857</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>587877</v>
+        <v>587930</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>418609</v>
+        <v>421799</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>456186</v>
+        <v>457587</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>890268</v>
+        <v>888497</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>462871</v>
+        <v>464900</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>484625</v>
+        <v>485331</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>939836</v>
+        <v>941900</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>306698</v>
+        <v>306626</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>342741</v>
+        <v>342762</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>653062</v>
+        <v>653775</v>
       </c>
     </row>
     <row r="15">
@@ -1354,10 +1354,10 @@
         <v>313472</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>352440</v>
+        <v>353072</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>664823</v>
+        <v>665731</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>355202</v>
+        <v>353827</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>396717</v>
+        <v>397653</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>761179</v>
+        <v>759712</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>369769</v>
+        <v>368903</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>417925</v>
+        <v>417552</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>784697</v>
+        <v>784354</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>184747</v>
+        <v>184062</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>214737</v>
+        <v>215017</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>401524</v>
+        <v>403439</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>197774</v>
+        <v>197910</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>222377</v>
+        <v>222032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>417786</v>
+        <v>418953</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>263392</v>
+        <v>263500</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>250844</v>
+        <v>250906</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>518203</v>
+        <v>518470</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>269895</v>
+        <v>269834</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>261162</v>
+        <v>260856</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>529338</v>
+        <v>529584</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>672643</v>
+        <v>670976</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>730332</v>
+        <v>731085</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1411653</v>
+        <v>1410716</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>697112</v>
+        <v>697332</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>752939</v>
+        <v>754656</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1445334</v>
+        <v>1445253</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>720711</v>
+        <v>720672</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>774564</v>
+        <v>772427</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1500346</v>
+        <v>1505248</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>752333</v>
+        <v>753656</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>798403</v>
+        <v>797629</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1542636</v>
+        <v>1544115</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
     </row>
     <row r="40">
